--- a/Excel Files/Scenario 13/TC032/13.0 - TC32  - Create Payment Terms.xlsx
+++ b/Excel Files/Scenario 13/TC032/13.0 - TC32  - Create Payment Terms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-syazwan\Excel Files\Scenario 13\TC032\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC032\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F6AAFF-631C-4304-BA64-BDD8142BE869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3A06C5-B597-4D22-8045-B8FDF0316867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MLF110" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>TB60BL8</t>
+    <t>TB60BL11</t>
   </si>
 </sst>
 </file>
@@ -137,7 +137,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +174,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -312,7 +318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,6 +358,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -685,7 +694,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -733,16 +742,16 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="26.4">
       <c r="A5" s="5" t="s">
@@ -771,10 +780,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="39.6">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
@@ -795,8 +804,8 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="9">
         <v>20</v>
       </c>
@@ -819,7 +828,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="12" t="s">

--- a/Excel Files/Scenario 13/TC032/13.0 - TC32  - Create Payment Terms.xlsx
+++ b/Excel Files/Scenario 13/TC032/13.0 - TC32  - Create Payment Terms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC032\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3A06C5-B597-4D22-8045-B8FDF0316867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84948F9-9FCC-47E8-963A-B33AFF8CF3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MLF110" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>TB60BL11</t>
+    <t>TB60BLTS1</t>
   </si>
 </sst>
 </file>
@@ -861,6 +861,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70311ed55a7647e60c093d812ed30f13">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2560ccc14650c91144102f2a05b91b43" ns2:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -998,16 +1007,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC25A0EA-F611-4A68-8B25-97219254C238}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AD2635B-2597-40DF-9621-8BD35827C77A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1023,12 +1031,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC25A0EA-F611-4A68-8B25-97219254C238}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Excel Files/Scenario 13/TC032/13.0 - TC32  - Create Payment Terms.xlsx
+++ b/Excel Files/Scenario 13/TC032/13.0 - TC32  - Create Payment Terms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC032\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84948F9-9FCC-47E8-963A-B33AFF8CF3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EEA71B-4227-4EA3-AE80-7DCD03092D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22176" yWindow="1056" windowWidth="22140" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MLF110" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>TB60BLTS1</t>
+    <t>TB60BLTS2</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -861,15 +861,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70311ed55a7647e60c093d812ed30f13">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2560ccc14650c91144102f2a05b91b43" ns2:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -1007,15 +998,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC25A0EA-F611-4A68-8B25-97219254C238}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AD2635B-2597-40DF-9621-8BD35827C77A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1031,4 +1023,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC25A0EA-F611-4A68-8B25-97219254C238}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Excel Files/Scenario 13/TC032/13.0 - TC32  - Create Payment Terms.xlsx
+++ b/Excel Files/Scenario 13/TC032/13.0 - TC32  - Create Payment Terms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC032\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EEA71B-4227-4EA3-AE80-7DCD03092D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4680D527-F5E5-48F7-BB23-2020CEA83C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22176" yWindow="1056" windowWidth="22140" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MLF110" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>TB60BLTS2</t>
+    <t>TB60BLTS6</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
